--- a/tabelle_da_carricare.xlsx
+++ b/tabelle_da_carricare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surpanu\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43640F22-9F7E-43B0-B436-CA5B708164C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06443F6A-8D1E-40DB-AC6D-D0018702FB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{39AF94D4-3DE2-41CC-89EB-244BEE85B8C8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{39AF94D4-3DE2-41CC-89EB-244BEE85B8C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>NOME_TABELLA</t>
   </si>
@@ -45,6 +45,12 @@
   </si>
   <si>
     <t>ISTAT_82_87</t>
+  </si>
+  <si>
+    <t>ISTAT_29_7</t>
+  </si>
+  <si>
+    <t>ISTAT_31_739</t>
   </si>
 </sst>
 </file>
@@ -396,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B758842-469A-4905-8E5E-B5AA3D2D692D}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,6 +429,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tabelle_da_carricare.xlsx
+++ b/tabelle_da_carricare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surpanu\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06443F6A-8D1E-40DB-AC6D-D0018702FB4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7183C2-2781-41DB-92A2-C971C78BACF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{39AF94D4-3DE2-41CC-89EB-244BEE85B8C8}"/>
   </bookViews>
@@ -405,7 +405,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/tabelle_da_carricare.xlsx
+++ b/tabelle_da_carricare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surpanu\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D7183C2-2781-41DB-92A2-C971C78BACF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60F5C12-3B21-4980-9B0B-00DE3F94E56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{39AF94D4-3DE2-41CC-89EB-244BEE85B8C8}"/>
   </bookViews>
@@ -404,9 +404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B758842-469A-4905-8E5E-B5AA3D2D692D}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/tabelle_da_carricare.xlsx
+++ b/tabelle_da_carricare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\surpanu\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60F5C12-3B21-4980-9B0B-00DE3F94E56C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E6C541-D3AF-4F27-A7E1-4027EBF128F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{39AF94D4-3DE2-41CC-89EB-244BEE85B8C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>NOME_TABELLA</t>
   </si>
@@ -51,6 +51,15 @@
   </si>
   <si>
     <t>ISTAT_31_739</t>
+  </si>
+  <si>
+    <t>ISTAT_12_323_DF_DCCV_IMPDEP_1</t>
+  </si>
+  <si>
+    <t>ISTAT_12_323_DF_DCCV_IMPDEP_2</t>
+  </si>
+  <si>
+    <t>ISTAT_12_60_DF_DCCV_CONSACQUA_1</t>
   </si>
 </sst>
 </file>
@@ -402,13 +411,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B758842-469A-4905-8E5E-B5AA3D2D692D}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
+    <col min="1" max="1" width="44.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -424,7 +435,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -432,7 +443,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -441,6 +452,30 @@
       </c>
       <c r="B4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
